--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3189796.797090134</v>
+        <v>3188867.741895519</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2127881.062998361</v>
+        <v>2127881.062998358</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6798613.249908338</v>
+        <v>6798613.24990834</v>
       </c>
     </row>
     <row r="11">
@@ -661,22 +661,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>291.3243344373805</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>321.7201828948703</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>137.4348246626608</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>144.143376232441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>53.95897644353155</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>280.489989564555</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U7" t="n">
-        <v>1.089140488075268</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>141.3709780805732</v>
+        <v>129.2396991643725</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1183,22 +1183,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>173.7828199682118</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.69205899092346</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D11" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G11" t="n">
-        <v>173.4078253881729</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>15.42428558140291</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219383</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723126</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1584,19 +1584,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D14" t="n">
-        <v>114.0338090732249</v>
+        <v>260.0572573384421</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1627,7 +1627,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380453</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943253</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1821,19 +1821,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5931293662018</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C17" t="n">
-        <v>295.2524720077822</v>
+        <v>48.25657690305076</v>
       </c>
       <c r="D17" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F17" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G17" t="n">
         <v>315.0398534825604</v>
@@ -1864,7 +1864,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T17" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V17" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W17" t="n">
-        <v>234.5001618079384</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X17" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.5345275142884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C19" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D19" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E19" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F19" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G19" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H19" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I19" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S19" t="n">
         <v>106.7966485049597</v>
@@ -2058,19 +2058,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V19" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W19" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X19" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y19" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C20" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D20" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E20" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F20" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G20" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H20" t="n">
-        <v>81.61838887131739</v>
+        <v>124.1464565409427</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V20" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X20" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C22" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D22" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E22" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F22" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G22" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H22" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I22" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S22" t="n">
         <v>106.7966485049597</v>
@@ -2295,19 +2295,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V22" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W22" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X22" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y22" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C23" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D23" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E23" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F23" t="n">
-        <v>318.7342196110055</v>
+        <v>215.5179724164065</v>
       </c>
       <c r="G23" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>81.61838887131739</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V23" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W23" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X23" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007185</v>
       </c>
       <c r="C25" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035426</v>
       </c>
       <c r="D25" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219398</v>
       </c>
       <c r="E25" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507309</v>
       </c>
       <c r="F25" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484036</v>
       </c>
       <c r="G25" t="n">
-        <v>72.58023888723245</v>
+        <v>72.5802388872325</v>
       </c>
       <c r="H25" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380454</v>
       </c>
       <c r="I25" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943239</v>
       </c>
       <c r="S25" t="n">
         <v>106.7966485049597</v>
@@ -2532,19 +2532,19 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U25" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V25" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W25" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X25" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y25" t="n">
-        <v>126.8896660972066</v>
+        <v>126.8896660972067</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>202.9484002072708</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>14.24559732535152</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
         <v>298.5345275142884</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943231</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>224.9129848558536</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2809,10 +2809,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>56.49943888151655</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
         <v>273.2977702070789</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.79664850496</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662018</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>301.4034929455276</v>
+        <v>301.4034929455274</v>
       </c>
       <c r="C32" t="n">
-        <v>294.1574411733434</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>286.5004121867436</v>
+        <v>286.5004121867434</v>
       </c>
       <c r="E32" t="n">
-        <v>303.4713843258656</v>
+        <v>303.4713843258654</v>
       </c>
       <c r="F32" t="n">
-        <v>144.3464917519558</v>
+        <v>317.6391887765665</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>313.9448226481213</v>
       </c>
       <c r="H32" t="n">
-        <v>225.7559146204189</v>
+        <v>225.7559146204187</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.86744042970429</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.76211419960464</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>126.1792911074222</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>158.1088969609921</v>
+        <v>158.1088969609918</v>
       </c>
       <c r="V32" t="n">
-        <v>243.5994358947615</v>
+        <v>204.5933222726975</v>
       </c>
       <c r="W32" t="n">
-        <v>272.2027393726401</v>
+        <v>272.2027393726399</v>
       </c>
       <c r="X32" t="n">
-        <v>290.4717737075184</v>
+        <v>290.4717737075182</v>
       </c>
       <c r="Y32" t="n">
-        <v>297.4394966798496</v>
+        <v>297.4394966798494</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.26963319563296</v>
+        <v>88.26963319563274</v>
       </c>
       <c r="C34" t="n">
-        <v>73.41676144591537</v>
+        <v>73.41676144591514</v>
       </c>
       <c r="D34" t="n">
-        <v>58.9904766577551</v>
+        <v>58.99047665775487</v>
       </c>
       <c r="E34" t="n">
-        <v>58.91691871063421</v>
+        <v>58.91691871063398</v>
       </c>
       <c r="F34" t="n">
-        <v>60.66637013040148</v>
+        <v>60.66637013040125</v>
       </c>
       <c r="G34" t="n">
-        <v>71.48520805279361</v>
+        <v>71.48520805279338</v>
       </c>
       <c r="H34" t="n">
-        <v>58.83746021936565</v>
+        <v>58.83746021936543</v>
       </c>
       <c r="I34" t="n">
-        <v>36.67717580053758</v>
+        <v>36.67717580053736</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>27.5756741649935</v>
+        <v>27.57567416499327</v>
       </c>
       <c r="S34" t="n">
-        <v>105.7016176705208</v>
+        <v>105.7016176705206</v>
       </c>
       <c r="T34" t="n">
-        <v>138.2755560046929</v>
+        <v>138.2755560046927</v>
       </c>
       <c r="U34" t="n">
-        <v>187.4980985317628</v>
+        <v>187.4980985317625</v>
       </c>
       <c r="V34" t="n">
-        <v>168.2332464186287</v>
+        <v>168.2332464186285</v>
       </c>
       <c r="W34" t="n">
-        <v>185.4107927393788</v>
+        <v>185.4107927393786</v>
       </c>
       <c r="X34" t="n">
-        <v>136.6532136860914</v>
+        <v>136.6532136860912</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.7946352627678</v>
+        <v>125.7946352627675</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.4034929455276</v>
+        <v>301.4034929455274</v>
       </c>
       <c r="C35" t="n">
-        <v>294.1574411733434</v>
+        <v>294.1574411733432</v>
       </c>
       <c r="D35" t="n">
-        <v>286.5004121867436</v>
+        <v>286.5004121867434</v>
       </c>
       <c r="E35" t="n">
-        <v>303.4713843258656</v>
+        <v>303.4713843258654</v>
       </c>
       <c r="F35" t="n">
-        <v>317.6391887765667</v>
+        <v>317.6391887765665</v>
       </c>
       <c r="G35" t="n">
-        <v>313.9448226481215</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>225.7559146204189</v>
+        <v>225.7559146204187</v>
       </c>
       <c r="I35" t="n">
-        <v>41.86744042970452</v>
+        <v>41.86744042970429</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.76211419960464</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>126.1792911074222</v>
+        <v>126.179291107422</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>12.71087370628437</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>243.5994358947613</v>
       </c>
       <c r="W35" t="n">
-        <v>144.8061121259567</v>
+        <v>272.2027393726399</v>
       </c>
       <c r="X35" t="n">
-        <v>290.4717737075184</v>
+        <v>290.4717737075182</v>
       </c>
       <c r="Y35" t="n">
-        <v>297.4394966798496</v>
+        <v>297.4394966798494</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.26963319563296</v>
+        <v>88.26963319563274</v>
       </c>
       <c r="C37" t="n">
-        <v>73.41676144591537</v>
+        <v>73.41676144591514</v>
       </c>
       <c r="D37" t="n">
-        <v>58.9904766577551</v>
+        <v>58.99047665775487</v>
       </c>
       <c r="E37" t="n">
-        <v>58.91691871063421</v>
+        <v>58.91691871063398</v>
       </c>
       <c r="F37" t="n">
-        <v>60.66637013040148</v>
+        <v>60.66637013040125</v>
       </c>
       <c r="G37" t="n">
-        <v>71.48520805279361</v>
+        <v>71.48520805279338</v>
       </c>
       <c r="H37" t="n">
-        <v>58.83746021936565</v>
+        <v>58.83746021936543</v>
       </c>
       <c r="I37" t="n">
-        <v>36.67717580053758</v>
+        <v>36.67717580053736</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>27.5756741649935</v>
+        <v>27.57567416499327</v>
       </c>
       <c r="S37" t="n">
-        <v>105.7016176705208</v>
+        <v>105.7016176705206</v>
       </c>
       <c r="T37" t="n">
-        <v>138.2755560046929</v>
+        <v>138.2755560046927</v>
       </c>
       <c r="U37" t="n">
-        <v>187.4980985317628</v>
+        <v>187.4980985317625</v>
       </c>
       <c r="V37" t="n">
-        <v>168.2332464186287</v>
+        <v>168.2332464186285</v>
       </c>
       <c r="W37" t="n">
-        <v>185.4107927393788</v>
+        <v>185.4107927393786</v>
       </c>
       <c r="X37" t="n">
-        <v>136.6532136860914</v>
+        <v>136.6532136860912</v>
       </c>
       <c r="Y37" t="n">
-        <v>125.7946352627678</v>
+        <v>125.7946352627675</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.4034929455276</v>
+        <v>301.4034929455274</v>
       </c>
       <c r="C38" t="n">
-        <v>294.1574411733434</v>
+        <v>294.1574411733432</v>
       </c>
       <c r="D38" t="n">
-        <v>286.5004121867436</v>
+        <v>286.5004121867434</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>303.4713843258654</v>
       </c>
       <c r="F38" t="n">
-        <v>317.6391887765667</v>
+        <v>317.6391887765665</v>
       </c>
       <c r="G38" t="n">
-        <v>313.9448226481215</v>
+        <v>313.9448226481213</v>
       </c>
       <c r="H38" t="n">
-        <v>225.7559146204189</v>
+        <v>225.7559146204187</v>
       </c>
       <c r="I38" t="n">
-        <v>41.86744042970452</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.76211419960464</v>
+        <v>69.76211419960441</v>
       </c>
       <c r="T38" t="n">
-        <v>126.1792911074222</v>
+        <v>126.179291107422</v>
       </c>
       <c r="U38" t="n">
-        <v>158.1088969609921</v>
+        <v>158.1088969609918</v>
       </c>
       <c r="V38" t="n">
-        <v>243.5994358947615</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>272.2027393726401</v>
+        <v>272.2027393726399</v>
       </c>
       <c r="X38" t="n">
-        <v>64.83819793094679</v>
+        <v>290.4717737075182</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.4394966798496</v>
+        <v>53.80141290188135</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.26963319563296</v>
+        <v>88.26963319563274</v>
       </c>
       <c r="C40" t="n">
-        <v>73.41676144591537</v>
+        <v>73.41676144591514</v>
       </c>
       <c r="D40" t="n">
-        <v>58.9904766577551</v>
+        <v>58.99047665775487</v>
       </c>
       <c r="E40" t="n">
-        <v>58.91691871063421</v>
+        <v>58.91691871063398</v>
       </c>
       <c r="F40" t="n">
-        <v>60.66637013040148</v>
+        <v>60.66637013040125</v>
       </c>
       <c r="G40" t="n">
-        <v>71.48520805279361</v>
+        <v>71.48520805279338</v>
       </c>
       <c r="H40" t="n">
-        <v>58.83746021936565</v>
+        <v>58.83746021936543</v>
       </c>
       <c r="I40" t="n">
-        <v>36.67717580053758</v>
+        <v>36.67717580053736</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.5756741649935</v>
+        <v>27.57567416499327</v>
       </c>
       <c r="S40" t="n">
-        <v>105.7016176705208</v>
+        <v>105.7016176705206</v>
       </c>
       <c r="T40" t="n">
-        <v>138.2755560046929</v>
+        <v>138.2755560046927</v>
       </c>
       <c r="U40" t="n">
-        <v>187.4980985317628</v>
+        <v>187.4980985317625</v>
       </c>
       <c r="V40" t="n">
-        <v>168.2332464186287</v>
+        <v>168.2332464186285</v>
       </c>
       <c r="W40" t="n">
-        <v>185.4107927393788</v>
+        <v>185.4107927393786</v>
       </c>
       <c r="X40" t="n">
-        <v>136.6532136860914</v>
+        <v>136.6532136860912</v>
       </c>
       <c r="Y40" t="n">
-        <v>125.7946352627678</v>
+        <v>125.7946352627675</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>395.3947674198441</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>388.1487156476599</v>
+        <v>388.1487156476596</v>
       </c>
       <c r="D41" t="n">
-        <v>380.4916866610601</v>
+        <v>380.4916866610599</v>
       </c>
       <c r="E41" t="n">
-        <v>397.4626588001821</v>
+        <v>397.4626588001818</v>
       </c>
       <c r="F41" t="n">
-        <v>411.6304632508832</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>264.3767738110132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>319.7471890947352</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>135.8587149040208</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>36.51795374289421</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.0841328931357</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>366.1940138469564</v>
       </c>
       <c r="X41" t="n">
-        <v>384.4630481818349</v>
+        <v>384.4630481818347</v>
       </c>
       <c r="Y41" t="n">
-        <v>391.4307711541661</v>
+        <v>391.4307711541658</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>152.9817511320716</v>
+        <v>152.9817511320713</v>
       </c>
       <c r="E43" t="n">
-        <v>152.9081931849507</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>154.6576446047179</v>
+        <v>154.6576446047177</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>152.8287346936821</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>130.6684502748538</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.78299700946508</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>230.9928961899226</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>230.6444881604077</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.7859097370842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>395.3947674198441</v>
+        <v>395.3947674198438</v>
       </c>
       <c r="C44" t="n">
-        <v>388.1487156476599</v>
+        <v>388.1487156476596</v>
       </c>
       <c r="D44" t="n">
-        <v>380.4916866610601</v>
+        <v>175.416632901727</v>
       </c>
       <c r="E44" t="n">
-        <v>397.4626588001821</v>
+        <v>397.4626588001818</v>
       </c>
       <c r="F44" t="n">
-        <v>411.6304632508832</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.936097122438</v>
+        <v>407.9360971224378</v>
       </c>
       <c r="H44" t="n">
-        <v>319.7471890947354</v>
+        <v>319.7471890947352</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>36.51795374289421</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>163.7533886739209</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>312.5873069298406</v>
+        <v>337.5907103690777</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>391.4307711541658</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>182.2609076699492</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>152.9817511320713</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>76.82926924925188</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>281.4893730060792</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>262.2245208929452</v>
+        <v>65.51459460917359</v>
       </c>
       <c r="W46" t="n">
-        <v>279.4020672136953</v>
+        <v>279.4020672136951</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.785909737084</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1510.526376601847</v>
+        <v>1577.411516051556</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.259372119644</v>
+        <v>1184.236014554486</v>
       </c>
       <c r="D2" t="n">
-        <v>1216.259372119644</v>
+        <v>798.794885771154</v>
       </c>
       <c r="E2" t="n">
-        <v>1216.259372119644</v>
+        <v>396.2113608876985</v>
       </c>
       <c r="F2" t="n">
-        <v>799.3649336496217</v>
+        <v>71.24147917570829</v>
       </c>
       <c r="G2" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V2" t="n">
-        <v>3067.963471491298</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W2" t="n">
-        <v>2696.964436459586</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="X2" t="n">
-        <v>2307.511831392642</v>
+        <v>2374.396970842351</v>
       </c>
       <c r="Y2" t="n">
-        <v>1911.021122313243</v>
+        <v>1977.906261762953</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>900.7358324498676</v>
       </c>
       <c r="K3" t="n">
-        <v>900.7358324498676</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L3" t="n">
-        <v>900.7358324498676</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="M3" t="n">
-        <v>1293.671671132949</v>
+        <v>2331.812714037089</v>
       </c>
       <c r="N3" t="n">
-        <v>1949.449642343508</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="O3" t="n">
-        <v>2465.969924934489</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="P3" t="n">
         <v>2871.591293650886</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>381.0703742794417</v>
+        <v>700.8421056634361</v>
       </c>
       <c r="C4" t="n">
-        <v>381.0703742794417</v>
+        <v>530.6369877294253</v>
       </c>
       <c r="D4" t="n">
-        <v>381.0703742794417</v>
+        <v>375.0038746319401</v>
       </c>
       <c r="E4" t="n">
-        <v>381.0703742794417</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4512,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S4" t="n">
-        <v>760.7500664282172</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T4" t="n">
-        <v>760.7500664282172</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U4" t="n">
-        <v>760.7500664282172</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="V4" t="n">
-        <v>760.7500664282172</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="W4" t="n">
-        <v>760.7500664282172</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="X4" t="n">
-        <v>526.6697442112003</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="Y4" t="n">
-        <v>381.0703742794417</v>
+        <v>839.6651608782449</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1818.538092260458</v>
+        <v>522.652680240431</v>
       </c>
       <c r="C5" t="n">
-        <v>1818.538092260458</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="D5" t="n">
-        <v>1433.096963477125</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="E5" t="n">
-        <v>1030.51343859367</v>
+        <v>129.4771787433615</v>
       </c>
       <c r="F5" t="n">
-        <v>613.6190001236475</v>
+        <v>116.6231443137434</v>
       </c>
       <c r="G5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2844.462869050715</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2844.462869050715</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2502.356059754233</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>2502.356059754233</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X5" t="n">
-        <v>2219.032837971854</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y5" t="n">
-        <v>2219.032837971854</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>1122.744905612751</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N6" t="n">
         <v>1223.947919817482</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>543.177667430203</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>543.177667430203</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>543.177667430203</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>543.177667430203</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>385.851732643176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
         <v>62.11912770411553</v>
@@ -4755,22 +4755,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U7" t="n">
-        <v>962.4660083385212</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V7" t="n">
-        <v>962.4660083385212</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W7" t="n">
-        <v>962.4660083385212</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X7" t="n">
-        <v>728.3856861215042</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.3856861215042</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.97898166879</v>
+        <v>746.1532826810144</v>
       </c>
       <c r="C8" t="n">
-        <v>1899.97898166879</v>
+        <v>352.977781183945</v>
       </c>
       <c r="D8" t="n">
-        <v>1757.180013910635</v>
+        <v>222.4326305128616</v>
       </c>
       <c r="E8" t="n">
-        <v>1354.596489027179</v>
+        <v>222.4326305128616</v>
       </c>
       <c r="F8" t="n">
-        <v>937.702050557157</v>
+        <v>209.5785960832435</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H8" t="n">
         <v>200.4562446116507</v>
@@ -4831,25 +4831,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.963471491298</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V8" t="n">
-        <v>3067.963471491298</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="W8" t="n">
-        <v>2696.964436459586</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="X8" t="n">
-        <v>2696.964436459586</v>
+        <v>1543.13873747181</v>
       </c>
       <c r="Y8" t="n">
-        <v>2300.473727380187</v>
+        <v>1146.648028392411</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>225.5918232409357</v>
+        <v>543.4359097741176</v>
       </c>
       <c r="C10" t="n">
-        <v>225.5918232409357</v>
+        <v>373.2307918401068</v>
       </c>
       <c r="D10" t="n">
-        <v>225.5918232409357</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="E10" t="n">
-        <v>225.5918232409357</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="F10" t="n">
-        <v>225.5918232409357</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G10" t="n">
-        <v>225.5918232409357</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
         <v>62.11912770411553</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>401.1300252290284</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>225.5918232409357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>225.5918232409357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>225.5918232409357</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>225.5918232409357</v>
+        <v>951.7559896487755</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.5918232409357</v>
+        <v>728.6439284654189</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1728.149220539922</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C11" t="n">
-        <v>1429.914400330041</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D11" t="n">
-        <v>1139.413952833897</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E11" t="n">
-        <v>831.7711092376303</v>
+        <v>931.4373282580791</v>
       </c>
       <c r="F11" t="n">
-        <v>509.8173520547964</v>
+        <v>609.4835710752451</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>291.2614968504366</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5074,19 +5074,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2905.82359028062</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2905.82359028062</v>
+        <v>2729.431455556545</v>
       </c>
       <c r="W11" t="n">
-        <v>2629.765236536096</v>
+        <v>2729.431455556545</v>
       </c>
       <c r="X11" t="n">
-        <v>2335.253312756342</v>
+        <v>2434.91953177679</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.703284964131</v>
+        <v>2133.36950398458</v>
       </c>
     </row>
     <row r="12">
@@ -5129,10 +5129,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O12" t="n">
         <v>2146.089571124861</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669550994</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082769</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979799</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443707</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.124114144532</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5202,31 +5202,31 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5235,16 +5235,16 @@
         <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966843</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852093</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553807</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592124</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.897093415104</v>
+        <v>1843.395526006233</v>
       </c>
       <c r="C14" t="n">
-        <v>1397.662273205223</v>
+        <v>1545.160705796352</v>
       </c>
       <c r="D14" t="n">
         <v>1282.476607474693</v>
@@ -5272,10 +5272,10 @@
         <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244623</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5296,7 +5296,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5308,22 +5308,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="W14" t="n">
-        <v>2597.513109411278</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="X14" t="n">
-        <v>2303.001185631523</v>
+        <v>2450.499618222652</v>
       </c>
       <c r="Y14" t="n">
-        <v>2001.451157839313</v>
+        <v>2148.949590430441</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
         <v>175.2341099238429</v>
@@ -5366,16 +5366,16 @@
         <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C16" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F16" t="n">
         <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
         <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.04608710776</v>
@@ -5460,28 +5460,28 @@
         <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404583</v>
       </c>
       <c r="S16" t="n">
         <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852104</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592136</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1520.172595964104</v>
+        <v>1621.721072044626</v>
       </c>
       <c r="C17" t="n">
-        <v>1221.937775754223</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D17" t="n">
-        <v>931.4373282580789</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E17" t="n">
-        <v>931.4373282580789</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F17" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G17" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411551</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
         <v>3034.383511434015</v>
@@ -5548,19 +5548,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U17" t="n">
-        <v>2905.82359028062</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V17" t="n">
-        <v>2658.657462271326</v>
+        <v>2497.845413993113</v>
       </c>
       <c r="W17" t="n">
-        <v>2421.788611960278</v>
+        <v>2221.787060248589</v>
       </c>
       <c r="X17" t="n">
-        <v>2127.276688180523</v>
+        <v>1927.275136468834</v>
       </c>
       <c r="Y17" t="n">
-        <v>1825.726660388312</v>
+        <v>1927.275136468834</v>
       </c>
     </row>
     <row r="18">
@@ -5579,10 +5579,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5591,13 +5591,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860693</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
         <v>978.5393418843826</v>
@@ -5606,13 +5606,13 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1606.310991511064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C19" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D19" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E19" t="n">
-        <v>296.5093676443718</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F19" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G19" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H19" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
         <v>125.3967468362513</v>
       </c>
       <c r="K19" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L19" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M19" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N19" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O19" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P19" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q19" t="n">
         <v>1678.203301484817</v>
       </c>
       <c r="R19" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404583</v>
       </c>
       <c r="S19" t="n">
         <v>1541.36759087432</v>
       </c>
       <c r="T19" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U19" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V19" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W19" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852105</v>
       </c>
       <c r="X19" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592136</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1681.115887455785</v>
+        <v>1767.469967186864</v>
       </c>
       <c r="C20" t="n">
-        <v>1382.881067245904</v>
+        <v>1469.235146976983</v>
       </c>
       <c r="D20" t="n">
-        <v>1092.38061974976</v>
+        <v>1178.734699480839</v>
       </c>
       <c r="E20" t="n">
-        <v>784.7377761534926</v>
+        <v>871.0918558845722</v>
       </c>
       <c r="F20" t="n">
-        <v>462.7840189706587</v>
+        <v>549.1380987017383</v>
       </c>
       <c r="G20" t="n">
-        <v>144.5619447458503</v>
+        <v>230.9160244769297</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411552</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
         <v>565.7512566404055</v>
@@ -5785,19 +5785,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>3105.956385205776</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="V20" t="n">
-        <v>2858.790257196483</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="W20" t="n">
-        <v>2582.731903451959</v>
+        <v>2669.085983183038</v>
       </c>
       <c r="X20" t="n">
-        <v>2288.219979672204</v>
+        <v>2374.574059403284</v>
       </c>
       <c r="Y20" t="n">
-        <v>1986.669951879993</v>
+        <v>2073.024031611073</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>580.3847592515303</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.156408878212</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N21" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C22" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D22" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E22" t="n">
-        <v>296.5093676443718</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F22" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G22" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H22" t="n">
         <v>100.2728717798493</v>
@@ -5913,49 +5913,49 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K22" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757673</v>
       </c>
       <c r="L22" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791404</v>
       </c>
       <c r="M22" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469776</v>
       </c>
       <c r="N22" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O22" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P22" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q22" t="n">
         <v>1678.203301484817</v>
       </c>
       <c r="R22" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404583</v>
       </c>
       <c r="S22" t="n">
         <v>1541.36759087432</v>
       </c>
       <c r="T22" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U22" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V22" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W22" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852105</v>
       </c>
       <c r="X22" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y22" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592136</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1681.115887455785</v>
+        <v>1448.730965405809</v>
       </c>
       <c r="C23" t="n">
-        <v>1382.881067245904</v>
+        <v>1150.496145195928</v>
       </c>
       <c r="D23" t="n">
-        <v>1092.38061974976</v>
+        <v>859.9956976997844</v>
       </c>
       <c r="E23" t="n">
-        <v>784.7377761534926</v>
+        <v>552.3528541035173</v>
       </c>
       <c r="F23" t="n">
-        <v>462.7840189706587</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G23" t="n">
-        <v>144.5619447458503</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411552</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
@@ -6016,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2873.571463155801</v>
       </c>
       <c r="V23" t="n">
-        <v>2858.790257196483</v>
+        <v>2626.405335146508</v>
       </c>
       <c r="W23" t="n">
-        <v>2582.731903451959</v>
+        <v>2350.346981401984</v>
       </c>
       <c r="X23" t="n">
-        <v>2288.219979672204</v>
+        <v>2055.835057622229</v>
       </c>
       <c r="Y23" t="n">
-        <v>1986.669951879993</v>
+        <v>1754.285029830018</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C25" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D25" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E25" t="n">
-        <v>296.5093676443718</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F25" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G25" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H25" t="n">
         <v>100.2728717798493</v>
@@ -6150,13 +6150,13 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K25" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L25" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M25" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469766</v>
       </c>
       <c r="N25" t="n">
         <v>1113.046087107759</v>
@@ -6165,34 +6165,34 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P25" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q25" t="n">
         <v>1678.203301484817</v>
       </c>
       <c r="R25" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404583</v>
       </c>
       <c r="S25" t="n">
         <v>1541.36759087432</v>
       </c>
       <c r="T25" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U25" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V25" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W25" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852105</v>
       </c>
       <c r="X25" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y25" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592136</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1847.067890082145</v>
+        <v>1871.211875180717</v>
       </c>
       <c r="C26" t="n">
-        <v>1548.833069872264</v>
+        <v>1572.977054970836</v>
       </c>
       <c r="D26" t="n">
-        <v>1258.33262237612</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E26" t="n">
-        <v>950.689778779853</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F26" t="n">
-        <v>628.7360215970191</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G26" t="n">
-        <v>310.5139473722106</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H26" t="n">
         <v>105.5155633244623</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K26" t="n">
         <v>565.7512566404055</v>
@@ -6241,37 +6241,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O26" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P26" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q26" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>2977.396464052381</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U26" t="n">
-        <v>2977.396464052381</v>
+        <v>3019.994019186185</v>
       </c>
       <c r="V26" t="n">
-        <v>2730.230336043088</v>
+        <v>2772.827891176892</v>
       </c>
       <c r="W26" t="n">
-        <v>2454.171982298564</v>
+        <v>2772.827891176892</v>
       </c>
       <c r="X26" t="n">
-        <v>2454.171982298564</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y26" t="n">
-        <v>2152.621954506354</v>
+        <v>2176.765939604926</v>
       </c>
     </row>
     <row r="27">
@@ -6290,10 +6290,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E27" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F27" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G27" t="n">
         <v>199.803798091603</v>
@@ -6302,28 +6302,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C28" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E28" t="n">
         <v>296.5093676443718</v>
@@ -6375,16 +6375,16 @@
         <v>234.1241141445331</v>
       </c>
       <c r="G28" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H28" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J28" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
         <v>300.2831496757665</v>
@@ -6426,10 +6426,10 @@
         <v>850.6627251852101</v>
       </c>
       <c r="X28" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1871.211875180717</v>
+        <v>1598.67307041405</v>
       </c>
       <c r="C29" t="n">
-        <v>1572.977054970836</v>
+        <v>1300.438250204169</v>
       </c>
       <c r="D29" t="n">
-        <v>1282.476607474693</v>
+        <v>1009.937802708025</v>
       </c>
       <c r="E29" t="n">
-        <v>974.8337638784257</v>
+        <v>702.2949591117579</v>
       </c>
       <c r="F29" t="n">
-        <v>652.8800066955918</v>
+        <v>380.341201928924</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6579324707833</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5155633244623</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
         <v>206.768900612944</v>
@@ -6469,19 +6469,19 @@
         <v>565.7512566404057</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M29" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N29" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O29" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6496,19 +6496,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="V29" t="n">
-        <v>3048.886244921416</v>
+        <v>2697.97820891827</v>
       </c>
       <c r="W29" t="n">
-        <v>2772.827891176892</v>
+        <v>2421.919855173746</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.315967397137</v>
+        <v>2127.407931393991</v>
       </c>
       <c r="Y29" t="n">
-        <v>2176.765939604926</v>
+        <v>1825.857903601781</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551005</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082781</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E31" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G31" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H31" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
         <v>125.3967468362513</v>
@@ -6633,13 +6633,13 @@
         <v>836.805091346977</v>
       </c>
       <c r="N31" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P31" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q31" t="n">
         <v>1678.203301484817</v>
@@ -6660,7 +6660,7 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X31" t="n">
         <v>711.5230842553817</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1329.019778268083</v>
+        <v>1566.340504459085</v>
       </c>
       <c r="C32" t="n">
-        <v>1031.89104981016</v>
+        <v>1566.340504459085</v>
       </c>
       <c r="D32" t="n">
-        <v>742.4966940659745</v>
+        <v>1276.9461487149</v>
       </c>
       <c r="E32" t="n">
-        <v>435.9599422216658</v>
+        <v>970.4093968705911</v>
       </c>
       <c r="F32" t="n">
-        <v>290.1554050984781</v>
+        <v>649.5617314397159</v>
       </c>
       <c r="G32" t="n">
-        <v>290.1554050984781</v>
+        <v>332.4457489668661</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411552</v>
+        <v>104.4094715725037</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6727,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3035.489603185973</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2908.035773784537</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>2748.329817258282</v>
+        <v>2946.250428679522</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.269781000947</v>
+        <v>2739.590507191949</v>
       </c>
       <c r="W32" t="n">
-        <v>2227.317519008381</v>
+        <v>2464.638245199383</v>
       </c>
       <c r="X32" t="n">
-        <v>1933.911686980585</v>
+        <v>2171.232413171587</v>
       </c>
       <c r="Y32" t="n">
-        <v>1633.467750940333</v>
+        <v>1870.788477131335</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411552</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L33" t="n">
-        <v>174.7633905351325</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M33" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>485.3417246913913</v>
+        <v>485.3417246913896</v>
       </c>
       <c r="C34" t="n">
-        <v>411.1833797965273</v>
+        <v>411.1833797965259</v>
       </c>
       <c r="D34" t="n">
-        <v>351.5970397381888</v>
+        <v>351.5970397381876</v>
       </c>
       <c r="E34" t="n">
-        <v>292.0850006365381</v>
+        <v>292.0850006365371</v>
       </c>
       <c r="F34" t="n">
-        <v>230.8058388886578</v>
+        <v>230.8058388886571</v>
       </c>
       <c r="G34" t="n">
-        <v>158.5985580272501</v>
+        <v>158.5985580272497</v>
       </c>
       <c r="H34" t="n">
-        <v>99.16678002789087</v>
+        <v>99.16678002789064</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>126.4808273623458</v>
+        <v>126.480827362346</v>
       </c>
       <c r="K34" t="n">
-        <v>302.4513107279554</v>
+        <v>302.4513107279558</v>
       </c>
       <c r="L34" t="n">
-        <v>560.7143928574229</v>
+        <v>560.7143928574236</v>
       </c>
       <c r="M34" t="n">
-        <v>841.1414134513548</v>
+        <v>841.1414134513557</v>
       </c>
       <c r="N34" t="n">
-        <v>1118.466489738232</v>
+        <v>1118.466489738233</v>
       </c>
       <c r="O34" t="n">
-        <v>1375.306699035608</v>
+        <v>1348.936586795513</v>
       </c>
       <c r="P34" t="n">
-        <v>1589.318307067854</v>
+        <v>1562.948194827759</v>
       </c>
       <c r="Q34" t="n">
-        <v>1660.505833453482</v>
+        <v>1660.505833453478</v>
       </c>
       <c r="R34" t="n">
-        <v>1632.651617125206</v>
+        <v>1632.651617125202</v>
       </c>
       <c r="S34" t="n">
-        <v>1525.882306346902</v>
+        <v>1525.882306346899</v>
       </c>
       <c r="T34" t="n">
-        <v>1386.210027554283</v>
+        <v>1386.21002755428</v>
       </c>
       <c r="U34" t="n">
-        <v>1196.81800883533</v>
+        <v>1196.818008835327</v>
       </c>
       <c r="V34" t="n">
-        <v>1026.885436695301</v>
+        <v>1026.885436695299</v>
       </c>
       <c r="W34" t="n">
-        <v>839.6018076656258</v>
+        <v>839.6018076656234</v>
       </c>
       <c r="X34" t="n">
-        <v>701.5682584877557</v>
+        <v>701.5682584877535</v>
       </c>
       <c r="Y34" t="n">
-        <v>574.5029703435458</v>
+        <v>574.5029703435439</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1863.469232917009</v>
+        <v>1546.353250444157</v>
       </c>
       <c r="C35" t="n">
-        <v>1566.340504459086</v>
+        <v>1249.224521986235</v>
       </c>
       <c r="D35" t="n">
-        <v>1276.946148714901</v>
+        <v>959.8301662420498</v>
       </c>
       <c r="E35" t="n">
-        <v>970.409396870592</v>
+        <v>653.2934143977413</v>
       </c>
       <c r="F35" t="n">
-        <v>649.5617314397166</v>
+        <v>332.4457489668661</v>
       </c>
       <c r="G35" t="n">
-        <v>332.4457489668665</v>
+        <v>332.4457489668661</v>
       </c>
       <c r="H35" t="n">
-        <v>104.4094715725039</v>
+        <v>104.4094715725037</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6964,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3035.489603185973</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2908.035773784537</v>
+        <v>2978.50255580434</v>
       </c>
       <c r="U35" t="n">
-        <v>2908.035773784537</v>
+        <v>2965.663289434356</v>
       </c>
       <c r="V35" t="n">
-        <v>2908.035773784537</v>
+        <v>2719.603253177021</v>
       </c>
       <c r="W35" t="n">
-        <v>2761.766973657308</v>
+        <v>2444.650991184456</v>
       </c>
       <c r="X35" t="n">
-        <v>2468.361141629511</v>
+        <v>2151.245159156659</v>
       </c>
       <c r="Y35" t="n">
-        <v>2167.917205589259</v>
+        <v>1850.801223116407</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>485.3417246913913</v>
+        <v>485.3417246913896</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1833797965273</v>
+        <v>411.1833797965259</v>
       </c>
       <c r="D37" t="n">
-        <v>351.5970397381888</v>
+        <v>351.5970397381876</v>
       </c>
       <c r="E37" t="n">
-        <v>292.0850006365381</v>
+        <v>292.0850006365371</v>
       </c>
       <c r="F37" t="n">
-        <v>230.8058388886578</v>
+        <v>230.8058388886571</v>
       </c>
       <c r="G37" t="n">
-        <v>158.5985580272501</v>
+        <v>158.5985580272497</v>
       </c>
       <c r="H37" t="n">
-        <v>99.16678002789087</v>
+        <v>99.16678002789064</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>126.4808273623458</v>
+        <v>126.480827362346</v>
       </c>
       <c r="K37" t="n">
-        <v>302.4513107279554</v>
+        <v>302.4513107279558</v>
       </c>
       <c r="L37" t="n">
-        <v>534.3442806173323</v>
+        <v>560.7143928574236</v>
       </c>
       <c r="M37" t="n">
-        <v>814.771301211264</v>
+        <v>841.1414134513557</v>
       </c>
       <c r="N37" t="n">
-        <v>1092.096377498141</v>
+        <v>1118.466489738233</v>
       </c>
       <c r="O37" t="n">
-        <v>1348.936586795517</v>
+        <v>1375.306699035609</v>
       </c>
       <c r="P37" t="n">
-        <v>1562.948194827763</v>
+        <v>1589.318307067856</v>
       </c>
       <c r="Q37" t="n">
-        <v>1660.505833453482</v>
+        <v>1660.505833453478</v>
       </c>
       <c r="R37" t="n">
-        <v>1632.651617125206</v>
+        <v>1632.651617125202</v>
       </c>
       <c r="S37" t="n">
-        <v>1525.882306346902</v>
+        <v>1525.882306346899</v>
       </c>
       <c r="T37" t="n">
-        <v>1386.210027554283</v>
+        <v>1386.21002755428</v>
       </c>
       <c r="U37" t="n">
-        <v>1196.81800883533</v>
+        <v>1196.818008835327</v>
       </c>
       <c r="V37" t="n">
-        <v>1026.885436695301</v>
+        <v>1026.885436695299</v>
       </c>
       <c r="W37" t="n">
-        <v>839.6018076656258</v>
+        <v>839.6018076656234</v>
       </c>
       <c r="X37" t="n">
-        <v>701.5682584877557</v>
+        <v>701.5682584877535</v>
       </c>
       <c r="Y37" t="n">
-        <v>574.5029703435458</v>
+        <v>574.5029703435439</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1556.9324810727</v>
+        <v>1821.178889048619</v>
       </c>
       <c r="C38" t="n">
-        <v>1259.803752614778</v>
+        <v>1524.050160590697</v>
       </c>
       <c r="D38" t="n">
-        <v>970.409396870592</v>
+        <v>1234.655804846511</v>
       </c>
       <c r="E38" t="n">
-        <v>970.409396870592</v>
+        <v>928.1190530022029</v>
       </c>
       <c r="F38" t="n">
-        <v>649.5617314397166</v>
+        <v>607.2713875713278</v>
       </c>
       <c r="G38" t="n">
-        <v>332.4457489668665</v>
+        <v>290.1554050984778</v>
       </c>
       <c r="H38" t="n">
-        <v>104.4094715725039</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
         <v>1605.072448403515</v>
@@ -7192,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7207,19 +7207,19 @@
         <v>2908.035773784537</v>
       </c>
       <c r="U38" t="n">
-        <v>2748.329817258282</v>
+        <v>2748.329817258283</v>
       </c>
       <c r="V38" t="n">
-        <v>2502.269781000947</v>
+        <v>2748.329817258283</v>
       </c>
       <c r="W38" t="n">
-        <v>2227.317519008381</v>
+        <v>2473.377555265717</v>
       </c>
       <c r="X38" t="n">
-        <v>2161.824389785203</v>
+        <v>2179.971723237921</v>
       </c>
       <c r="Y38" t="n">
-        <v>1861.380453744951</v>
+        <v>2125.626861720869</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>658.8001958221562</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>485.3417246913913</v>
+        <v>485.3417246913896</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1833797965273</v>
+        <v>411.1833797965259</v>
       </c>
       <c r="D40" t="n">
-        <v>351.5970397381888</v>
+        <v>351.5970397381876</v>
       </c>
       <c r="E40" t="n">
-        <v>292.0850006365381</v>
+        <v>292.0850006365371</v>
       </c>
       <c r="F40" t="n">
-        <v>230.8058388886578</v>
+        <v>230.8058388886571</v>
       </c>
       <c r="G40" t="n">
-        <v>158.5985580272501</v>
+        <v>158.5985580272497</v>
       </c>
       <c r="H40" t="n">
-        <v>99.16678002789087</v>
+        <v>99.16678002789064</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>126.4808273623458</v>
+        <v>126.480827362346</v>
       </c>
       <c r="K40" t="n">
-        <v>302.4513107279554</v>
+        <v>276.0811984878595</v>
       </c>
       <c r="L40" t="n">
-        <v>560.7143928574229</v>
+        <v>534.3442806173273</v>
       </c>
       <c r="M40" t="n">
-        <v>841.1414134513548</v>
+        <v>814.7713012112592</v>
       </c>
       <c r="N40" t="n">
-        <v>1118.466489738232</v>
+        <v>1092.096377498136</v>
       </c>
       <c r="O40" t="n">
-        <v>1375.306699035608</v>
+        <v>1348.936586795513</v>
       </c>
       <c r="P40" t="n">
-        <v>1589.318307067854</v>
+        <v>1562.948194827759</v>
       </c>
       <c r="Q40" t="n">
-        <v>1660.505833453482</v>
+        <v>1660.505833453478</v>
       </c>
       <c r="R40" t="n">
-        <v>1632.651617125206</v>
+        <v>1632.651617125202</v>
       </c>
       <c r="S40" t="n">
-        <v>1525.882306346902</v>
+        <v>1525.882306346899</v>
       </c>
       <c r="T40" t="n">
-        <v>1386.210027554283</v>
+        <v>1386.21002755428</v>
       </c>
       <c r="U40" t="n">
-        <v>1196.81800883533</v>
+        <v>1196.818008835327</v>
       </c>
       <c r="V40" t="n">
-        <v>1026.885436695301</v>
+        <v>1026.885436695299</v>
       </c>
       <c r="W40" t="n">
-        <v>839.6018076656258</v>
+        <v>839.6018076656234</v>
       </c>
       <c r="X40" t="n">
-        <v>701.5682584877557</v>
+        <v>701.5682584877535</v>
       </c>
       <c r="Y40" t="n">
-        <v>574.5029703435458</v>
+        <v>574.5029703435439</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1922.836600603912</v>
+        <v>1700.208991449224</v>
       </c>
       <c r="C41" t="n">
-        <v>1530.767190858801</v>
+        <v>1308.139581704113</v>
       </c>
       <c r="D41" t="n">
-        <v>1146.432153827427</v>
+        <v>923.8045446727396</v>
       </c>
       <c r="E41" t="n">
-        <v>744.9547206959301</v>
+        <v>522.3271115412427</v>
       </c>
       <c r="F41" t="n">
-        <v>329.1663739778662</v>
+        <v>522.3271115412427</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411552</v>
+        <v>522.3271115412427</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411552</v>
+        <v>199.3501528596921</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3069.069563243257</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3069.069563243257</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2853.833065371402</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2853.833065371402</v>
       </c>
       <c r="V41" t="n">
-        <v>3105.956385205776</v>
+        <v>2853.833065371402</v>
       </c>
       <c r="W41" t="n">
-        <v>3105.956385205776</v>
+        <v>2483.940122091648</v>
       </c>
       <c r="X41" t="n">
-        <v>2717.609871890791</v>
+        <v>2095.593608776664</v>
       </c>
       <c r="Y41" t="n">
-        <v>2322.225254563351</v>
+        <v>1700.208991449224</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>681.6911717600976</v>
+        <v>504.854325695674</v>
       </c>
       <c r="C43" t="n">
-        <v>681.6911717600976</v>
+        <v>504.854325695674</v>
       </c>
       <c r="D43" t="n">
-        <v>527.1641504145708</v>
+        <v>350.3273043501474</v>
       </c>
       <c r="E43" t="n">
-        <v>372.7114300257318</v>
+        <v>350.3273043501474</v>
       </c>
       <c r="F43" t="n">
-        <v>216.4915869906631</v>
+        <v>194.107461315079</v>
       </c>
       <c r="G43" t="n">
-        <v>216.4915869906631</v>
+        <v>194.107461315079</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411552</v>
+        <v>194.107461315079</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411552</v>
@@ -7572,49 +7572,49 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
-        <v>145.0382493401519</v>
+        <v>145.0382493401521</v>
       </c>
       <c r="L43" t="n">
-        <v>310.2499697400461</v>
+        <v>310.2499697400465</v>
       </c>
       <c r="M43" t="n">
-        <v>497.6256286044046</v>
+        <v>497.6256286044052</v>
       </c>
       <c r="N43" t="n">
-        <v>681.8993431617082</v>
+        <v>681.8993431617091</v>
       </c>
       <c r="O43" t="n">
-        <v>845.6881907295108</v>
+        <v>845.6881907295119</v>
       </c>
       <c r="P43" t="n">
-        <v>966.6484370321838</v>
+        <v>966.6484370321851</v>
       </c>
       <c r="Q43" t="n">
-        <v>971.1547139283292</v>
+        <v>971.1547139283308</v>
       </c>
       <c r="R43" t="n">
-        <v>903.6971411914958</v>
+        <v>971.1547139283308</v>
       </c>
       <c r="S43" t="n">
-        <v>903.6971411914958</v>
+        <v>971.1547139283308</v>
       </c>
       <c r="T43" t="n">
-        <v>903.6971411914958</v>
+        <v>971.1547139283308</v>
       </c>
       <c r="U43" t="n">
-        <v>903.6971411914958</v>
+        <v>971.1547139283308</v>
       </c>
       <c r="V43" t="n">
-        <v>903.6971411914958</v>
+        <v>737.8285561607322</v>
       </c>
       <c r="W43" t="n">
-        <v>903.6971411914958</v>
+        <v>737.8285561607322</v>
       </c>
       <c r="X43" t="n">
-        <v>903.6971411914958</v>
+        <v>504.854325695674</v>
       </c>
       <c r="Y43" t="n">
-        <v>681.6911717600976</v>
+        <v>504.854325695674</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2390.822976771751</v>
+        <v>1767.888111104864</v>
       </c>
       <c r="C44" t="n">
-        <v>1998.75356702664</v>
+        <v>1375.818701359754</v>
       </c>
       <c r="D44" t="n">
-        <v>1614.418529995266</v>
+        <v>1198.630183277201</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.941096863769</v>
+        <v>797.1527501457044</v>
       </c>
       <c r="F44" t="n">
-        <v>797.1527501457049</v>
+        <v>797.1527501457044</v>
       </c>
       <c r="G44" t="n">
-        <v>385.0960863856664</v>
+        <v>385.0960863856662</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411552</v>
@@ -7648,7 +7648,7 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7672,28 +7672,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3069.069563243257</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>2903.662099936266</v>
       </c>
       <c r="T44" t="n">
-        <v>3105.956385205776</v>
+        <v>2903.662099936266</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2903.662099936266</v>
       </c>
       <c r="V44" t="n">
-        <v>2790.211630731189</v>
+        <v>2562.661382391743</v>
       </c>
       <c r="W44" t="n">
-        <v>2790.211630731189</v>
+        <v>2562.661382391743</v>
       </c>
       <c r="X44" t="n">
-        <v>2790.211630731189</v>
+        <v>2562.661382391743</v>
       </c>
       <c r="Y44" t="n">
-        <v>2790.211630731189</v>
+        <v>2167.276765064303</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>62.11912770411552</v>
+        <v>216.6461490496421</v>
       </c>
       <c r="C46" t="n">
-        <v>62.11912770411552</v>
+        <v>216.6461490496421</v>
       </c>
       <c r="D46" t="n">
         <v>62.11912770411552</v>
@@ -7809,49 +7809,49 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K46" t="n">
-        <v>145.0382493401519</v>
+        <v>145.0382493401521</v>
       </c>
       <c r="L46" t="n">
-        <v>310.2499697400461</v>
+        <v>310.2499697400465</v>
       </c>
       <c r="M46" t="n">
-        <v>497.6256286044046</v>
+        <v>497.6256286044052</v>
       </c>
       <c r="N46" t="n">
-        <v>681.8993431617082</v>
+        <v>681.8993431617091</v>
       </c>
       <c r="O46" t="n">
-        <v>845.6881907295108</v>
+        <v>845.6881907295119</v>
       </c>
       <c r="P46" t="n">
-        <v>966.6484370321838</v>
+        <v>966.6484370321851</v>
       </c>
       <c r="Q46" t="n">
-        <v>971.1547139283292</v>
+        <v>971.1547139283308</v>
       </c>
       <c r="R46" t="n">
-        <v>971.1547139283292</v>
+        <v>971.1547139283308</v>
       </c>
       <c r="S46" t="n">
-        <v>971.1547139283292</v>
+        <v>971.1547139283308</v>
       </c>
       <c r="T46" t="n">
-        <v>893.5493914543374</v>
+        <v>971.1547139283308</v>
       </c>
       <c r="U46" t="n">
-        <v>609.2166914481968</v>
+        <v>971.1547139283308</v>
       </c>
       <c r="V46" t="n">
-        <v>344.3434380209795</v>
+        <v>904.9783557372464</v>
       </c>
       <c r="W46" t="n">
-        <v>62.11912770411552</v>
+        <v>622.7540454203827</v>
       </c>
       <c r="X46" t="n">
-        <v>62.11912770411552</v>
+        <v>622.7540454203827</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.11912770411552</v>
+        <v>400.7480759889847</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>489.2920096079796</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>747.7741039759435</v>
+        <v>630.6030013529513</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8300,13 +8300,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>187.5973797276328</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8534,7 +8534,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8543,16 +8543,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>258.8480380294549</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8777,13 +8777,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>609.3287968270082</v>
       </c>
       <c r="N12" t="n">
-        <v>108.8653421701425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>663.2434089132776</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>535.2177063841971</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9254,16 +9254,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O18" t="n">
-        <v>464.9323088406971</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>124.646981443537</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>656.2283997181323</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>609.3287968270082</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,10 +9953,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
@@ -9965,16 +9965,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>373.1055958271594</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,16 +10190,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10208,10 +10208,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10430,16 +10430,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L33" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,10 +10664,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10676,16 +10676,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>373.1055958271594</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,22 +10904,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>656.2283997181323</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11138,7 +11138,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11147,19 +11147,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>684.2495388215582</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O45" t="n">
-        <v>412.7428484698906</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>141.6320280943875</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.9624712641434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>229.2701811477975</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.236344360222574e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>173.5616339479575</v>
+        <v>27.53818568274045</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>246.9958951047315</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>38.79760839914059</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="18">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>145.2325565835404</v>
+        <v>102.7044889139151</v>
       </c>
       <c r="I20" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404353</v>
       </c>
       <c r="T20" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U20" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>103.216247194599</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H23" t="n">
-        <v>145.2325565835404</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U23" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>23.90254524758697</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>144.9583304700794</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>77.58553892411288</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>188.1950278476838</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>294.1574411733432</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>173.2926970246109</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9448226481215</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.86744042970452</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>69.76211419960441</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>126.179291107422</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>39.00611362206376</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>313.9448226481213</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>69.76211419960441</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>158.1088969609921</v>
+        <v>145.3980232547075</v>
       </c>
       <c r="V35" t="n">
-        <v>243.5994358947615</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>127.3966272466834</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>303.4713843258656</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.86744042970429</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>243.5994358947613</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>225.6335757765716</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>243.638083777968</v>
       </c>
     </row>
     <row r="39">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>395.3947674198438</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>411.6304632508829</v>
       </c>
       <c r="G41" t="n">
-        <v>143.5593233114248</v>
+        <v>407.9360971224378</v>
       </c>
       <c r="H41" t="n">
-        <v>319.7471890947354</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>135.858714904021</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>36.51795374289445</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>163.7533886739211</v>
+        <v>163.7533886739209</v>
       </c>
       <c r="T41" t="n">
-        <v>220.1705655817387</v>
+        <v>7.086432688602741</v>
       </c>
       <c r="U41" t="n">
-        <v>252.1001714353085</v>
+        <v>252.1001714353083</v>
       </c>
       <c r="V41" t="n">
-        <v>337.590710369078</v>
+        <v>337.5907103690777</v>
       </c>
       <c r="W41" t="n">
-        <v>366.1940138469566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>182.2609076699494</v>
+        <v>182.2609076699492</v>
       </c>
       <c r="C43" t="n">
-        <v>167.4080359202318</v>
+        <v>167.4080359202316</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>152.9081931849504</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.4764825271101</v>
+        <v>165.4764825271099</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.8287346936819</v>
       </c>
       <c r="I43" t="n">
-        <v>130.6684502748541</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>28.97945663772024</v>
+        <v>28.97945663772</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.78395162984489</v>
+        <v>121.5669486393097</v>
       </c>
       <c r="S43" t="n">
-        <v>199.6928921448373</v>
+        <v>199.6928921448371</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2668304790094</v>
+        <v>232.2668304790091</v>
       </c>
       <c r="U43" t="n">
-        <v>281.4893730060792</v>
+        <v>281.489373006079</v>
       </c>
       <c r="V43" t="n">
-        <v>262.2245208929452</v>
+        <v>31.23162470302236</v>
       </c>
       <c r="W43" t="n">
-        <v>279.4020672136953</v>
+        <v>279.4020672136951</v>
       </c>
       <c r="X43" t="n">
-        <v>230.6444881604079</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.785909737084</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.0750537593329</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>411.6304632508829</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>135.858714904021</v>
+        <v>135.8587149040208</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>36.51795374289445</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>163.7533886739211</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.1705655817387</v>
+        <v>220.1705655817384</v>
       </c>
       <c r="U44" t="n">
-        <v>252.1001714353085</v>
+        <v>252.1001714353083</v>
       </c>
       <c r="V44" t="n">
-        <v>25.00340343923739</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>366.1940138469566</v>
+        <v>366.1940138469564</v>
       </c>
       <c r="X44" t="n">
-        <v>384.4630481818349</v>
+        <v>384.4630481818347</v>
       </c>
       <c r="Y44" t="n">
-        <v>391.4307711541661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>182.2609076699494</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.4080359202318</v>
+        <v>167.4080359202316</v>
       </c>
       <c r="D46" t="n">
-        <v>152.9817511320716</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>152.9081931849507</v>
+        <v>152.9081931849504</v>
       </c>
       <c r="F46" t="n">
-        <v>154.6576446047179</v>
+        <v>154.6576446047177</v>
       </c>
       <c r="G46" t="n">
-        <v>165.4764825271101</v>
+        <v>165.4764825271099</v>
       </c>
       <c r="H46" t="n">
-        <v>152.8287346936821</v>
+        <v>152.8287346936819</v>
       </c>
       <c r="I46" t="n">
-        <v>130.6684502748541</v>
+        <v>130.6684502748538</v>
       </c>
       <c r="J46" t="n">
-        <v>28.97945663772024</v>
+        <v>28.97945663772</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.56694863931</v>
+        <v>121.5669486393097</v>
       </c>
       <c r="S46" t="n">
-        <v>199.6928921448373</v>
+        <v>199.6928921448371</v>
       </c>
       <c r="T46" t="n">
-        <v>155.4375612297575</v>
+        <v>232.2668304790091</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>281.489373006079</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>196.7099262837714</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>230.6444881604079</v>
+        <v>230.6444881604077</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.7859097370842</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>593166.4293913338</v>
+        <v>593166.4293913336</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>593166.4293913338</v>
+        <v>593166.4293913337</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>593166.4293913337</v>
+        <v>593166.4293913336</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>594310.4628556137</v>
+        <v>594310.4628556139</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>594310.4628556137</v>
+        <v>594310.462855614</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594310.4628556137</v>
+        <v>594310.4628556139</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>447048.3567826886</v>
+        <v>447048.3567826893</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>447048.3567826886</v>
+        <v>447048.3567826893</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.623326749</v>
       </c>
       <c r="C2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.623326749</v>
       </c>
       <c r="D2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.6233267491</v>
       </c>
       <c r="E2" t="n">
-        <v>593166.4293913344</v>
+        <v>593166.4293913339</v>
       </c>
       <c r="F2" t="n">
-        <v>593166.4293913342</v>
+        <v>593166.4293913336</v>
       </c>
       <c r="G2" t="n">
+        <v>593166.4293913338</v>
+      </c>
+      <c r="H2" t="n">
+        <v>593166.4293913337</v>
+      </c>
+      <c r="I2" t="n">
+        <v>593166.4293913336</v>
+      </c>
+      <c r="J2" t="n">
+        <v>593166.4293913345</v>
+      </c>
+      <c r="K2" t="n">
         <v>593166.4293913339</v>
       </c>
-      <c r="H2" t="n">
-        <v>593166.4293913338</v>
-      </c>
-      <c r="I2" t="n">
-        <v>593166.4293913337</v>
-      </c>
-      <c r="J2" t="n">
-        <v>593166.4293913346</v>
-      </c>
-      <c r="K2" t="n">
-        <v>593166.4293913342</v>
-      </c>
       <c r="L2" t="n">
-        <v>594310.4628556145</v>
+        <v>594310.462855614</v>
       </c>
       <c r="M2" t="n">
-        <v>594310.4628556141</v>
+        <v>594310.4628556139</v>
       </c>
       <c r="N2" t="n">
-        <v>594310.4628556139</v>
+        <v>594310.4628556138</v>
       </c>
       <c r="O2" t="n">
-        <v>447048.356782689</v>
+        <v>447048.3567826896</v>
       </c>
       <c r="P2" t="n">
-        <v>447048.3567826892</v>
+        <v>447048.3567826897</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75193.01957945316</v>
+        <v>75193.01957945313</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>876.0246675510663</v>
+        <v>876.0246675512551</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>121801.4438820496</v>
       </c>
       <c r="E4" t="n">
-        <v>97239.09137183768</v>
+        <v>97239.09137183765</v>
       </c>
       <c r="F4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183765</v>
       </c>
       <c r="G4" t="n">
         <v>97239.09137183767</v>
@@ -26438,28 +26438,28 @@
         <v>97239.09137183767</v>
       </c>
       <c r="I4" t="n">
-        <v>97239.09137183765</v>
+        <v>97239.09137183767</v>
       </c>
       <c r="J4" t="n">
-        <v>97239.09137183773</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="K4" t="n">
-        <v>97239.09137183774</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="L4" t="n">
-        <v>97979.83380771102</v>
+        <v>97979.83380771115</v>
       </c>
       <c r="M4" t="n">
-        <v>97979.83380771102</v>
+        <v>97979.83380771115</v>
       </c>
       <c r="N4" t="n">
-        <v>97979.83380771102</v>
+        <v>97979.83380771115</v>
       </c>
       <c r="O4" t="n">
-        <v>1705.110514212502</v>
+        <v>1705.110514212757</v>
       </c>
       <c r="P4" t="n">
-        <v>1705.110514212502</v>
+        <v>1705.110514212757</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
-        <v>55112.28950890909</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="H5" t="n">
         <v>55112.2895089091</v>
@@ -26493,25 +26493,25 @@
         <v>55112.2895089091</v>
       </c>
       <c r="J5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890909</v>
       </c>
       <c r="K5" t="n">
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
-        <v>55204.34765612954</v>
+        <v>55204.34765612957</v>
       </c>
       <c r="M5" t="n">
-        <v>55204.34765612954</v>
+        <v>55204.34765612957</v>
       </c>
       <c r="N5" t="n">
-        <v>55204.34765612954</v>
+        <v>55204.34765612955</v>
       </c>
       <c r="O5" t="n">
-        <v>47302.59520234822</v>
+        <v>47302.59520234825</v>
       </c>
       <c r="P5" t="n">
-        <v>47302.59520234822</v>
+        <v>47302.59520234825</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168303.6869697426</v>
+        <v>168303.6869697427</v>
       </c>
       <c r="C6" t="n">
-        <v>428523.0423895714</v>
+        <v>428523.0423895716</v>
       </c>
       <c r="D6" t="n">
-        <v>428523.0423895714</v>
+        <v>428523.0423895717</v>
       </c>
       <c r="E6" t="n">
-        <v>365622.0289311345</v>
+        <v>365513.4683770328</v>
       </c>
       <c r="F6" t="n">
-        <v>440815.0485105874</v>
+        <v>440706.4879564857</v>
       </c>
       <c r="G6" t="n">
-        <v>440815.0485105872</v>
+        <v>440706.4879564859</v>
       </c>
       <c r="H6" t="n">
-        <v>440815.0485105871</v>
+        <v>440706.4879564858</v>
       </c>
       <c r="I6" t="n">
-        <v>440815.048510587</v>
+        <v>440706.4879564857</v>
       </c>
       <c r="J6" t="n">
-        <v>162458.3158184396</v>
+        <v>162349.7552643384</v>
       </c>
       <c r="K6" t="n">
-        <v>440815.0485105873</v>
+        <v>440706.487956486</v>
       </c>
       <c r="L6" t="n">
-        <v>440250.2567242229</v>
+        <v>440144.9648371616</v>
       </c>
       <c r="M6" t="n">
-        <v>441126.2813917736</v>
+        <v>441020.9895047128</v>
       </c>
       <c r="N6" t="n">
-        <v>441126.2813917734</v>
+        <v>441020.9895047127</v>
       </c>
       <c r="O6" t="n">
-        <v>398040.6510661283</v>
+        <v>397514.6103045742</v>
       </c>
       <c r="P6" t="n">
-        <v>398040.6510661285</v>
+        <v>397514.6103045743</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>93.99127447431641</v>
+      </c>
+      <c r="F2" t="n">
+        <v>93.99127447431641</v>
+      </c>
+      <c r="G2" t="n">
+        <v>93.99127447431641</v>
+      </c>
+      <c r="H2" t="n">
+        <v>93.99127447431641</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93.99127447431641</v>
+      </c>
+      <c r="J2" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="G2" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="H2" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="I2" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="J2" t="n">
-        <v>93.99127447431647</v>
-      </c>
-      <c r="K2" t="n">
-        <v>93.99127447431647</v>
-      </c>
       <c r="L2" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="M2" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="N2" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="P2" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
     </row>
     <row r="3">
@@ -26801,10 +26801,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.489096301444</v>
@@ -26813,16 +26813,16 @@
         <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
+        <v>776.4890963014439</v>
+      </c>
+      <c r="K4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="K4" t="n">
-        <v>776.489096301444</v>
-      </c>
       <c r="L4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.489096301444</v>
@@ -26916,28 +26916,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>93.99127447431641</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>93.99127447431647</v>
-      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.095030834438833</v>
+        <v>1.095030834439069</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,22 +27153,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>93.99127447431641</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>93.99127447431647</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>97.91941204471817</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91.00531119045172</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27438,10 +27438,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>45.9211138417275</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27602,10 +27602,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.73756433908207</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>355.0721515133453</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>105.0680894517187</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27785,13 +27785,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27827,19 +27827,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U7" t="n">
-        <v>281.4952633524428</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>240.2157394149258</v>
+        <v>252.3470183311265</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28028,13 +28028,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>108.8015838723063</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28076,10 +28076,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>220.0474600039232</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J19" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431732</v>
       </c>
       <c r="O19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431735</v>
       </c>
       <c r="L22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="P22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="C25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="D25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="E25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="F25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="G25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="H25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="I25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="J25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="K25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="L25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="M25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="N25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="O25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431755</v>
       </c>
       <c r="P25" t="n">
         <v>93.99127447431641</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="R25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="S25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="T25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="U25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="V25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="W25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="X25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431641</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="C32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="D32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="E32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="F32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="G32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="H32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="I32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="T32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="U32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="V32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="W32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="X32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="Y32" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="C34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="D34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="E34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="F34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="G34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="H34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="I34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="J34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="K34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="L34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="M34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="N34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="O34" t="n">
-        <v>95.0863053087553</v>
+        <v>68.44982829855715</v>
       </c>
       <c r="P34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.44982829856264</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="R34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="S34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="T34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="U34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="V34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="W34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="X34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="Y34" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="C35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="D35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="E35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="F35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="G35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="H35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="I35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="T35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="U35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="V35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="W35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="X35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="Y35" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="C37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="D37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="E37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="F37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="G37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="H37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="I37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="J37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="K37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="L37" t="n">
-        <v>68.44982829856275</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="M37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="N37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="O37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="P37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.0863053087553</v>
+        <v>68.44982829855712</v>
       </c>
       <c r="R37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="S37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="T37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="U37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="V37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="W37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="X37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="Y37" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="C38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="D38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="E38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="F38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="G38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="H38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="I38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="T38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="U38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="V38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="W38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="X38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="Y38" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="C40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="D40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="E40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="F40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="G40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="H40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="I40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="J40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="K40" t="n">
-        <v>95.0863053087553</v>
+        <v>68.44982829855721</v>
       </c>
       <c r="L40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="M40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="N40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="O40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="P40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.44982829856264</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="R40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="S40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="T40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="U40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="V40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="W40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="X40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
       <c r="Y40" t="n">
-        <v>95.0863053087553</v>
+        <v>95.08630530875553</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="C41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="D41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="E41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="F41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="G41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="H41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="I41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="S41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="T41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="U41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="V41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="W41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="X41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="C43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="D43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="E43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="F43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="G43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="H43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="I43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="J43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="K43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="L43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="N43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="O43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="P43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="R43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="S43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="T43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="U43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="V43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="W43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="X43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="C44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="D44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="E44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="F44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="G44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="H44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="I44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="S44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="T44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="U44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="V44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="W44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="X44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="C46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="D46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="E46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="F46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="G46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="H46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="I46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="J46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="K46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="L46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="M46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="N46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="O46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="P46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="R46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="S46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="T46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="U46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="V46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="W46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="X46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.09503083443883</v>
+        <v>1.095030834439072</v>
       </c>
     </row>
   </sheetData>
@@ -34713,7 +34713,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34780,22 +34780,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>396.9048875586677</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>662.4019911217769</v>
+        <v>545.2308884987847</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -35020,13 +35020,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>102.2252668734662</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35187,7 +35187,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35254,7 +35254,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35263,16 +35263,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>173.4759251752883</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>516.9416747776963</v>
       </c>
       <c r="N12" t="n">
-        <v>23.49322931597588</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>570.8562868639657</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>442.5301474953082</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35974,16 +35974,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O18" t="n">
-        <v>372.2447499518083</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K19" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L19" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M19" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N19" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492761</v>
       </c>
       <c r="O19" t="n">
         <v>258.3395240113953</v>
@@ -36062,7 +36062,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.44803848446894</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>35.05004611020361</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611273</v>
       </c>
       <c r="L22" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M22" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N22" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O22" t="n">
         <v>258.3395240113953</v>
@@ -36299,7 +36299,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.44803848446882</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>516.9416747776963</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215734</v>
       </c>
       <c r="K25" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L25" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M25" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N25" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O25" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113964</v>
       </c>
       <c r="P25" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.44803848446894</v>
+        <v>97.4480384844689</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
@@ -36685,16 +36685,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>287.7334829729927</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36928,10 +36928,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L33" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.01181783659624</v>
+        <v>65.01181783659646</v>
       </c>
       <c r="K34" t="n">
-        <v>177.7479629955653</v>
+        <v>177.7479629955655</v>
       </c>
       <c r="L34" t="n">
-        <v>260.8718001307753</v>
+        <v>260.8718001307755</v>
       </c>
       <c r="M34" t="n">
-        <v>283.2596167615472</v>
+        <v>283.2596167615475</v>
       </c>
       <c r="N34" t="n">
-        <v>280.1263396837141</v>
+        <v>280.1263396837143</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4345548458342</v>
+        <v>232.798077835636</v>
       </c>
       <c r="P34" t="n">
-        <v>216.1733414467135</v>
+        <v>216.1733414467137</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.90659230871512</v>
+        <v>98.54306931890801</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37396,16 +37396,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>287.7334829729927</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>65.01181783659624</v>
+        <v>65.01181783659646</v>
       </c>
       <c r="K37" t="n">
-        <v>177.7479629955653</v>
+        <v>177.7479629955655</v>
       </c>
       <c r="L37" t="n">
-        <v>234.2353231205827</v>
+        <v>260.8718001307755</v>
       </c>
       <c r="M37" t="n">
-        <v>283.2596167615472</v>
+        <v>283.2596167615475</v>
       </c>
       <c r="N37" t="n">
-        <v>280.1263396837141</v>
+        <v>280.1263396837143</v>
       </c>
       <c r="O37" t="n">
-        <v>259.4345548458342</v>
+        <v>259.4345548458344</v>
       </c>
       <c r="P37" t="n">
-        <v>216.1733414467135</v>
+        <v>216.1733414467137</v>
       </c>
       <c r="Q37" t="n">
-        <v>98.54306931890778</v>
+        <v>71.90659230870961</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>570.8562868639657</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.01181783659624</v>
+        <v>65.01181783659646</v>
       </c>
       <c r="K40" t="n">
-        <v>177.7479629955653</v>
+        <v>151.1114859853672</v>
       </c>
       <c r="L40" t="n">
-        <v>260.8718001307753</v>
+        <v>260.8718001307755</v>
       </c>
       <c r="M40" t="n">
-        <v>283.2596167615472</v>
+        <v>283.2596167615475</v>
       </c>
       <c r="N40" t="n">
-        <v>280.1263396837141</v>
+        <v>280.1263396837143</v>
       </c>
       <c r="O40" t="n">
-        <v>259.4345548458342</v>
+        <v>259.4345548458344</v>
       </c>
       <c r="P40" t="n">
-        <v>216.1733414467135</v>
+        <v>216.1733414467137</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.90659230871512</v>
+        <v>98.54306931890801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37867,19 +37867,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>83.7566885212488</v>
+        <v>83.75668852124905</v>
       </c>
       <c r="L43" t="n">
-        <v>166.8805256564588</v>
+        <v>166.880525656459</v>
       </c>
       <c r="M43" t="n">
-        <v>189.2683422872308</v>
+        <v>189.268342287231</v>
       </c>
       <c r="N43" t="n">
-        <v>186.1350652093976</v>
+        <v>186.1350652093979</v>
       </c>
       <c r="O43" t="n">
-        <v>165.4432803715177</v>
+        <v>165.4432803715179</v>
       </c>
       <c r="P43" t="n">
-        <v>122.182066972397</v>
+        <v>122.1820669723972</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.551794844591313</v>
+        <v>4.551794844591555</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065875</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O45" t="n">
-        <v>320.0552895810017</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>83.7566885212488</v>
+        <v>83.75668852124905</v>
       </c>
       <c r="L46" t="n">
-        <v>166.8805256564588</v>
+        <v>166.880525656459</v>
       </c>
       <c r="M46" t="n">
-        <v>189.2683422872308</v>
+        <v>189.268342287231</v>
       </c>
       <c r="N46" t="n">
-        <v>186.1350652093976</v>
+        <v>186.1350652093979</v>
       </c>
       <c r="O46" t="n">
-        <v>165.4432803715177</v>
+        <v>165.4432803715179</v>
       </c>
       <c r="P46" t="n">
-        <v>122.182066972397</v>
+        <v>122.1820669723972</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.551794844591313</v>
+        <v>4.551794844591555</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
